--- a/WorkingFolder/SVC final/svc_poly_5.xlsx
+++ b/WorkingFolder/SVC final/svc_poly_5.xlsx
@@ -531,7 +531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +543,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -580,11 +587,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -886,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -895,7 +903,7 @@
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="85.7109375" bestFit="1" customWidth="1"/>
@@ -929,22 +937,22 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>57.9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>53.8</v>
       </c>
       <c r="G2" t="s">
@@ -955,22 +963,22 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>25</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>37.5</v>
       </c>
       <c r="G3" t="s">
@@ -981,23 +989,23 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>90.8</v>
       </c>
-      <c r="F4">
-        <v>92.300000000000011</v>
+      <c r="F4" s="2">
+        <v>92.3</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -1007,22 +1015,22 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>93.4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>92.300000000000011</v>
       </c>
       <c r="G5" t="s">
@@ -1033,22 +1041,22 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>89.3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>80</v>
       </c>
       <c r="G6" t="s">
@@ -1059,23 +1067,23 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>83.3</v>
       </c>
-      <c r="F7">
-        <v>57.099999999999987</v>
+      <c r="F7" s="2">
+        <v>57.1</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
@@ -1085,22 +1093,22 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>75</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>73.099999999999994</v>
       </c>
       <c r="G8" t="s">
@@ -1111,22 +1119,22 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>82.8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>70</v>
       </c>
       <c r="G9" t="s">
@@ -1137,22 +1145,22 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>63.2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>42.9</v>
       </c>
       <c r="G10" t="s">
@@ -1397,22 +1405,22 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>38.5</v>
       </c>
       <c r="G20" t="s">
@@ -1423,22 +1431,22 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>20.8</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>12.5</v>
       </c>
       <c r="G21" t="s">
@@ -1449,22 +1457,22 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>86.8</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>88.5</v>
       </c>
       <c r="G22" t="s">
@@ -1475,22 +1483,22 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>75</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>76.900000000000006</v>
       </c>
       <c r="G23" t="s">
@@ -1501,22 +1509,22 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>64.3</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>70</v>
       </c>
       <c r="G24" t="s">
@@ -1527,22 +1535,22 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>83.3</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>42.9</v>
       </c>
       <c r="G25" t="s">
@@ -1553,22 +1561,22 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>75</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>73.099999999999994</v>
       </c>
       <c r="G26" t="s">
@@ -1579,22 +1587,22 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>65.5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>70</v>
       </c>
       <c r="G27" t="s">
@@ -1605,22 +1613,22 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>57.9</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>42.9</v>
       </c>
       <c r="G28" t="s">
@@ -1865,22 +1873,22 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>39.5</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>42.3</v>
       </c>
       <c r="G38" t="s">
@@ -1891,22 +1899,22 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>25</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>31.2</v>
       </c>
       <c r="G39" t="s">
@@ -1917,22 +1925,22 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>89.5</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>92.300000000000011</v>
       </c>
       <c r="G40" t="s">
@@ -1943,22 +1951,22 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>75</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>76.900000000000006</v>
       </c>
       <c r="G41" t="s">
@@ -1969,22 +1977,22 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="2">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>71.399999999999991</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>70</v>
       </c>
       <c r="G42" t="s">
@@ -1995,22 +2003,22 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="2">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>61.1</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>42.9</v>
       </c>
       <c r="G43" t="s">
@@ -2021,22 +2029,22 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>75</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>73.099999999999994</v>
       </c>
       <c r="G44" t="s">
@@ -2047,22 +2055,22 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>89.7</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <v>60</v>
       </c>
       <c r="G45" t="s">
@@ -2073,22 +2081,22 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>78.900000000000006</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <v>42.9</v>
       </c>
       <c r="G46" t="s">
@@ -2333,22 +2341,22 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C56">
-        <v>5</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>46.1</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <v>38.5</v>
       </c>
       <c r="G56" t="s">
@@ -2359,22 +2367,22 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C57">
-        <v>5</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>22.9</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>31.2</v>
       </c>
       <c r="G57" t="s">
@@ -2385,22 +2393,22 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C58">
-        <v>5</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" s="2">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>89.5</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>88.5</v>
       </c>
       <c r="G58" t="s">
@@ -2411,22 +2419,22 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>86.8</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>76.900000000000006</v>
       </c>
       <c r="G59" t="s">
@@ -2437,22 +2445,22 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" s="2">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>78.600000000000009</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <v>70</v>
       </c>
       <c r="G60" t="s">
@@ -2463,22 +2471,22 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C61">
-        <v>5</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>88.9</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>57.099999999999987</v>
       </c>
       <c r="G61" t="s">
@@ -2489,22 +2497,22 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C62">
-        <v>5</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" s="2">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>75</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>73.099999999999994</v>
       </c>
       <c r="G62" t="s">
@@ -2515,22 +2523,22 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" s="2">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>82.8</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <v>70</v>
       </c>
       <c r="G63" t="s">
@@ -2541,22 +2549,22 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C64">
-        <v>5</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>68.400000000000006</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
         <v>57.099999999999987</v>
       </c>
       <c r="G64" t="s">
